--- a/natmiOut/OldD4/LR-pairs_lrc2p/Thbs1-Itgb3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Thbs1-Itgb3.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.5546309522848</v>
+        <v>15.829186</v>
       </c>
       <c r="H2">
-        <v>10.5546309522848</v>
+        <v>47.487558</v>
       </c>
       <c r="I2">
-        <v>0.01397944877686488</v>
+        <v>0.01520167221269649</v>
       </c>
       <c r="J2">
-        <v>0.01397944877686488</v>
+        <v>0.01552195334947967</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.93555434326865</v>
+        <v>4.768073999999999</v>
       </c>
       <c r="N2">
-        <v>1.93555434326865</v>
+        <v>14.304222</v>
       </c>
       <c r="O2">
-        <v>0.3177929289826911</v>
+        <v>0.5213599352042468</v>
       </c>
       <c r="P2">
-        <v>0.3177929289826911</v>
+        <v>0.5361472681932758</v>
       </c>
       <c r="Q2">
-        <v>20.42906178129257</v>
+        <v>75.474730207764</v>
       </c>
       <c r="R2">
-        <v>20.42906178129257</v>
+        <v>679.2725718698759</v>
       </c>
       <c r="S2">
-        <v>0.004442569972363388</v>
+        <v>0.007925542839807643</v>
       </c>
       <c r="T2">
-        <v>0.004442569972363388</v>
+        <v>0.008322052885346994</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.5546309522848</v>
+        <v>15.829186</v>
       </c>
       <c r="H3">
-        <v>10.5546309522848</v>
+        <v>47.487558</v>
       </c>
       <c r="I3">
-        <v>0.01397944877686488</v>
+        <v>0.01520167221269649</v>
       </c>
       <c r="J3">
-        <v>0.01397944877686488</v>
+        <v>0.01552195334947967</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.94140758228632</v>
+        <v>3.082852</v>
       </c>
       <c r="N3">
-        <v>2.94140758228632</v>
+        <v>9.248556000000001</v>
       </c>
       <c r="O3">
-        <v>0.4829409900876771</v>
+        <v>0.3370911439219029</v>
       </c>
       <c r="P3">
-        <v>0.4829409900876771</v>
+        <v>0.3466520607784562</v>
       </c>
       <c r="Q3">
-        <v>31.04547151128439</v>
+        <v>48.79903771847201</v>
       </c>
       <c r="R3">
-        <v>31.04547151128439</v>
+        <v>439.1913394662481</v>
       </c>
       <c r="S3">
-        <v>0.006751248833179092</v>
+        <v>0.005124349075703664</v>
       </c>
       <c r="T3">
-        <v>0.006751248833179092</v>
+        <v>0.005380717115904189</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.5546309522848</v>
+        <v>15.829186</v>
       </c>
       <c r="H4">
-        <v>10.5546309522848</v>
+        <v>47.487558</v>
       </c>
       <c r="I4">
-        <v>0.01397944877686488</v>
+        <v>0.01520167221269649</v>
       </c>
       <c r="J4">
-        <v>0.01397944877686488</v>
+        <v>0.01552195334947967</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.167768556652029</v>
+        <v>0.1813516666666667</v>
       </c>
       <c r="N4">
-        <v>0.167768556652029</v>
+        <v>0.544055</v>
       </c>
       <c r="O4">
-        <v>0.0275454219071992</v>
+        <v>0.01982970339439268</v>
       </c>
       <c r="P4">
-        <v>0.0275454219071992</v>
+        <v>0.02039213331538707</v>
       </c>
       <c r="Q4">
-        <v>1.770735200859651</v>
+        <v>2.870649263076666</v>
       </c>
       <c r="R4">
-        <v>1.770735200859651</v>
+        <v>25.83584336769</v>
       </c>
       <c r="S4">
-        <v>0.000385069814588823</v>
+        <v>0.0003014446510765525</v>
       </c>
       <c r="T4">
-        <v>0.000385069814588823</v>
+        <v>0.0003165257420178083</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.5546309522848</v>
+        <v>15.829186</v>
       </c>
       <c r="H5">
-        <v>10.5546309522848</v>
+        <v>47.487558</v>
       </c>
       <c r="I5">
-        <v>0.01397944877686488</v>
+        <v>0.01520167221269649</v>
       </c>
       <c r="J5">
-        <v>0.01397944877686488</v>
+        <v>0.01552195334947967</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.307330066358417</v>
+        <v>0.3564626666666666</v>
       </c>
       <c r="N5">
-        <v>0.307330066358417</v>
+        <v>1.069388</v>
       </c>
       <c r="O5">
-        <v>0.05045961240620675</v>
+        <v>0.0389770277885927</v>
       </c>
       <c r="P5">
-        <v>0.05045961240620675</v>
+        <v>0.04008253331349799</v>
       </c>
       <c r="Q5">
-        <v>3.243755430954289</v>
+        <v>5.642513852722667</v>
       </c>
       <c r="R5">
-        <v>3.243755430954289</v>
+        <v>50.782624674504</v>
       </c>
       <c r="S5">
-        <v>0.0007053975669330228</v>
+        <v>0.0005925160002673486</v>
       </c>
       <c r="T5">
-        <v>0.0007053975669330228</v>
+        <v>0.0006221592122210807</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.5546309522848</v>
+        <v>15.829186</v>
       </c>
       <c r="H6">
-        <v>10.5546309522848</v>
+        <v>47.487558</v>
       </c>
       <c r="I6">
-        <v>0.01397944877686488</v>
+        <v>0.01520167221269649</v>
       </c>
       <c r="J6">
-        <v>0.01397944877686488</v>
+        <v>0.01552195334947967</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.738554335361319</v>
+        <v>0.756715</v>
       </c>
       <c r="N6">
-        <v>0.738554335361319</v>
+        <v>1.51343</v>
       </c>
       <c r="O6">
-        <v>0.1212610466162259</v>
+        <v>0.08274218969086504</v>
       </c>
       <c r="P6">
-        <v>0.1212610466162259</v>
+        <v>0.05672600439938289</v>
       </c>
       <c r="Q6">
-        <v>7.795168447948706</v>
+        <v>11.97818248399</v>
       </c>
       <c r="R6">
-        <v>7.795168447948706</v>
+        <v>71.86909490394</v>
       </c>
       <c r="S6">
-        <v>0.001695162589800554</v>
+        <v>0.001257819645841285</v>
       </c>
       <c r="T6">
-        <v>0.001695162589800554</v>
+        <v>0.0008804983939895998</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>140.081771352162</v>
+        <v>155.500389</v>
       </c>
       <c r="H7">
-        <v>140.081771352162</v>
+        <v>466.501167</v>
       </c>
       <c r="I7">
-        <v>0.1855361836944317</v>
+        <v>0.1493359129474374</v>
       </c>
       <c r="J7">
-        <v>0.1855361836944317</v>
+        <v>0.1524822428572096</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.93555434326865</v>
+        <v>4.768073999999999</v>
       </c>
       <c r="N7">
-        <v>1.93555434326865</v>
+        <v>14.304222</v>
       </c>
       <c r="O7">
-        <v>0.3177929289826911</v>
+        <v>0.5213599352042468</v>
       </c>
       <c r="P7">
-        <v>0.3177929289826911</v>
+        <v>0.5361472681932758</v>
       </c>
       <c r="Q7">
-        <v>271.1358809534431</v>
+        <v>741.437361780786</v>
       </c>
       <c r="R7">
-        <v>271.1358809534431</v>
+        <v>6672.936256027074</v>
       </c>
       <c r="S7">
-        <v>0.05896208724852405</v>
+        <v>0.07785776189794302</v>
       </c>
       <c r="T7">
-        <v>0.05896208724852405</v>
+        <v>0.08175293795587656</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>140.081771352162</v>
+        <v>155.500389</v>
       </c>
       <c r="H8">
-        <v>140.081771352162</v>
+        <v>466.501167</v>
       </c>
       <c r="I8">
-        <v>0.1855361836944317</v>
+        <v>0.1493359129474374</v>
       </c>
       <c r="J8">
-        <v>0.1855361836944317</v>
+        <v>0.1524822428572096</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.94140758228632</v>
+        <v>3.082852</v>
       </c>
       <c r="N8">
-        <v>2.94140758228632</v>
+        <v>9.248556000000001</v>
       </c>
       <c r="O8">
-        <v>0.4829409900876771</v>
+        <v>0.3370911439219029</v>
       </c>
       <c r="P8">
-        <v>0.4829409900876771</v>
+        <v>0.3466520607784562</v>
       </c>
       <c r="Q8">
-        <v>412.0375843953479</v>
+        <v>479.3846852294281</v>
       </c>
       <c r="R8">
-        <v>412.0375843953479</v>
+        <v>4314.462167064852</v>
       </c>
       <c r="S8">
-        <v>0.08960302825047796</v>
+        <v>0.05033981372407339</v>
       </c>
       <c r="T8">
-        <v>0.08960302825047796</v>
+        <v>0.05285828371857273</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>140.081771352162</v>
+        <v>155.500389</v>
       </c>
       <c r="H9">
-        <v>140.081771352162</v>
+        <v>466.501167</v>
       </c>
       <c r="I9">
-        <v>0.1855361836944317</v>
+        <v>0.1493359129474374</v>
       </c>
       <c r="J9">
-        <v>0.1855361836944317</v>
+        <v>0.1524822428572096</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.167768556652029</v>
+        <v>0.1813516666666667</v>
       </c>
       <c r="N9">
-        <v>0.167768556652029</v>
+        <v>0.544055</v>
       </c>
       <c r="O9">
-        <v>0.0275454219071992</v>
+        <v>0.01982970339439268</v>
       </c>
       <c r="P9">
-        <v>0.0275454219071992</v>
+        <v>0.02039213331538707</v>
       </c>
       <c r="Q9">
-        <v>23.50131659301177</v>
+        <v>28.200254712465</v>
       </c>
       <c r="R9">
-        <v>23.50131659301177</v>
+        <v>253.802292412185</v>
       </c>
       <c r="S9">
-        <v>0.005110672458914734</v>
+        <v>0.00296128685987853</v>
       </c>
       <c r="T9">
-        <v>0.005110672458914734</v>
+        <v>0.003109438224573445</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>140.081771352162</v>
+        <v>155.500389</v>
       </c>
       <c r="H10">
-        <v>140.081771352162</v>
+        <v>466.501167</v>
       </c>
       <c r="I10">
-        <v>0.1855361836944317</v>
+        <v>0.1493359129474374</v>
       </c>
       <c r="J10">
-        <v>0.1855361836944317</v>
+        <v>0.1524822428572096</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.307330066358417</v>
+        <v>0.3564626666666666</v>
       </c>
       <c r="N10">
-        <v>0.307330066358417</v>
+        <v>1.069388</v>
       </c>
       <c r="O10">
-        <v>0.05045961240620675</v>
+        <v>0.0389770277885927</v>
       </c>
       <c r="P10">
-        <v>0.05045961240620675</v>
+        <v>0.04008253331349799</v>
       </c>
       <c r="Q10">
-        <v>43.05134008526454</v>
+        <v>55.430083330644</v>
       </c>
       <c r="R10">
-        <v>43.05134008526454</v>
+        <v>498.870749975796</v>
       </c>
       <c r="S10">
-        <v>0.0093620839165478</v>
+        <v>0.005820670028787129</v>
       </c>
       <c r="T10">
-        <v>0.0093620839165478</v>
+        <v>0.006111874579040995</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>140.081771352162</v>
+        <v>155.500389</v>
       </c>
       <c r="H11">
-        <v>140.081771352162</v>
+        <v>466.501167</v>
       </c>
       <c r="I11">
-        <v>0.1855361836944317</v>
+        <v>0.1493359129474374</v>
       </c>
       <c r="J11">
-        <v>0.1855361836944317</v>
+        <v>0.1524822428572096</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.738554335361319</v>
+        <v>0.756715</v>
       </c>
       <c r="N11">
-        <v>0.738554335361319</v>
+        <v>1.51343</v>
       </c>
       <c r="O11">
-        <v>0.1212610466162259</v>
+        <v>0.08274218969086504</v>
       </c>
       <c r="P11">
-        <v>0.1212610466162259</v>
+        <v>0.05672600439938289</v>
       </c>
       <c r="Q11">
-        <v>103.4579995372323</v>
+        <v>117.669476862135</v>
       </c>
       <c r="R11">
-        <v>103.4579995372323</v>
+        <v>706.0168611728101</v>
       </c>
       <c r="S11">
-        <v>0.02249831181996713</v>
+        <v>0.01235638043675538</v>
       </c>
       <c r="T11">
-        <v>0.02249831181996713</v>
+        <v>0.00864970837914584</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>154.497709563478</v>
+        <v>179.1193723333333</v>
       </c>
       <c r="H12">
-        <v>154.497709563478</v>
+        <v>537.358117</v>
       </c>
       <c r="I12">
-        <v>0.2046298754309405</v>
+        <v>0.1720185728536685</v>
       </c>
       <c r="J12">
-        <v>0.2046298754309405</v>
+        <v>0.1756427994052303</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.93555434326865</v>
+        <v>4.768073999999999</v>
       </c>
       <c r="N12">
-        <v>1.93555434326865</v>
+        <v>14.304222</v>
       </c>
       <c r="O12">
-        <v>0.3177929289826911</v>
+        <v>0.5213599352042468</v>
       </c>
       <c r="P12">
-        <v>0.3177929289826911</v>
+        <v>0.5361472681932758</v>
       </c>
       <c r="Q12">
-        <v>299.0387127706483</v>
+        <v>854.0544221188859</v>
       </c>
       <c r="R12">
-        <v>299.0387127706483</v>
+        <v>7686.489799069974</v>
       </c>
       <c r="S12">
-        <v>0.06502992747056181</v>
+        <v>0.08968359199691564</v>
       </c>
       <c r="T12">
-        <v>0.06502992747056181</v>
+        <v>0.09417040707893375</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>154.497709563478</v>
+        <v>179.1193723333333</v>
       </c>
       <c r="H13">
-        <v>154.497709563478</v>
+        <v>537.358117</v>
       </c>
       <c r="I13">
-        <v>0.2046298754309405</v>
+        <v>0.1720185728536685</v>
       </c>
       <c r="J13">
-        <v>0.2046298754309405</v>
+        <v>0.1756427994052303</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.94140758228632</v>
+        <v>3.082852</v>
       </c>
       <c r="N13">
-        <v>2.94140758228632</v>
+        <v>9.248556000000001</v>
       </c>
       <c r="O13">
-        <v>0.4829409900876771</v>
+        <v>0.3370911439219029</v>
       </c>
       <c r="P13">
-        <v>0.4829409900876771</v>
+        <v>0.3466520607784562</v>
       </c>
       <c r="Q13">
-        <v>454.4407343558839</v>
+        <v>552.1985152365614</v>
       </c>
       <c r="R13">
-        <v>454.4407343558839</v>
+        <v>4969.786637129052</v>
       </c>
       <c r="S13">
-        <v>0.09882415464213647</v>
+        <v>0.05798593749905631</v>
       </c>
       <c r="T13">
-        <v>0.09882415464213647</v>
+        <v>0.06088693837472008</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>154.497709563478</v>
+        <v>179.1193723333333</v>
       </c>
       <c r="H14">
-        <v>154.497709563478</v>
+        <v>537.358117</v>
       </c>
       <c r="I14">
-        <v>0.2046298754309405</v>
+        <v>0.1720185728536685</v>
       </c>
       <c r="J14">
-        <v>0.2046298754309405</v>
+        <v>0.1756427994052303</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.167768556652029</v>
+        <v>0.1813516666666667</v>
       </c>
       <c r="N14">
-        <v>0.167768556652029</v>
+        <v>0.544055</v>
       </c>
       <c r="O14">
-        <v>0.0275454219071992</v>
+        <v>0.01982970339439268</v>
       </c>
       <c r="P14">
-        <v>0.0275454219071992</v>
+        <v>0.02039213331538707</v>
       </c>
       <c r="Q14">
-        <v>25.91985773950908</v>
+        <v>32.48359670493722</v>
       </c>
       <c r="R14">
-        <v>25.91985773950908</v>
+        <v>292.352370344435</v>
       </c>
       <c r="S14">
-        <v>0.005636616253562873</v>
+        <v>0.003411077278014976</v>
       </c>
       <c r="T14">
-        <v>0.005636616253562873</v>
+        <v>0.003581731381359245</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>154.497709563478</v>
+        <v>179.1193723333333</v>
       </c>
       <c r="H15">
-        <v>154.497709563478</v>
+        <v>537.358117</v>
       </c>
       <c r="I15">
-        <v>0.2046298754309405</v>
+        <v>0.1720185728536685</v>
       </c>
       <c r="J15">
-        <v>0.2046298754309405</v>
+        <v>0.1756427994052303</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.307330066358417</v>
+        <v>0.3564626666666666</v>
       </c>
       <c r="N15">
-        <v>0.307330066358417</v>
+        <v>1.069388</v>
       </c>
       <c r="O15">
-        <v>0.05045961240620675</v>
+        <v>0.0389770277885927</v>
       </c>
       <c r="P15">
-        <v>0.05045961240620675</v>
+        <v>0.04008253331349799</v>
       </c>
       <c r="Q15">
-        <v>47.48179133236712</v>
+        <v>63.84936911359955</v>
       </c>
       <c r="R15">
-        <v>47.48179133236712</v>
+        <v>574.644322022396</v>
       </c>
       <c r="S15">
-        <v>0.01032554420097563</v>
+        <v>0.006704772694271497</v>
       </c>
       <c r="T15">
-        <v>0.01032554420097563</v>
+        <v>0.007040208358436189</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>154.497709563478</v>
+        <v>179.1193723333333</v>
       </c>
       <c r="H16">
-        <v>154.497709563478</v>
+        <v>537.358117</v>
       </c>
       <c r="I16">
-        <v>0.2046298754309405</v>
+        <v>0.1720185728536685</v>
       </c>
       <c r="J16">
-        <v>0.2046298754309405</v>
+        <v>0.1756427994052303</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.738554335361319</v>
+        <v>0.756715</v>
       </c>
       <c r="N16">
-        <v>0.738554335361319</v>
+        <v>1.51343</v>
       </c>
       <c r="O16">
-        <v>0.1212610466162259</v>
+        <v>0.08274218969086504</v>
       </c>
       <c r="P16">
-        <v>0.1212610466162259</v>
+        <v>0.05672600439938289</v>
       </c>
       <c r="Q16">
-        <v>114.1049532015006</v>
+        <v>135.5423158352183</v>
       </c>
       <c r="R16">
-        <v>114.1049532015006</v>
+        <v>813.25389501131</v>
       </c>
       <c r="S16">
-        <v>0.02481363286370378</v>
+        <v>0.01423319338541013</v>
       </c>
       <c r="T16">
-        <v>0.02481363286370378</v>
+        <v>0.00996351421178102</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>396.600699876961</v>
+        <v>626.3728126666666</v>
       </c>
       <c r="H17">
-        <v>396.600699876961</v>
+        <v>1879.118438</v>
       </c>
       <c r="I17">
-        <v>0.525291617856004</v>
+        <v>0.6015416194555684</v>
       </c>
       <c r="J17">
-        <v>0.525291617856004</v>
+        <v>0.6142153852759307</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.93555434326865</v>
+        <v>4.768073999999999</v>
       </c>
       <c r="N17">
-        <v>1.93555434326865</v>
+        <v>14.304222</v>
       </c>
       <c r="O17">
-        <v>0.3177929289826911</v>
+        <v>0.5213599352042468</v>
       </c>
       <c r="P17">
-        <v>0.3177929289826911</v>
+        <v>0.5361472681932758</v>
       </c>
       <c r="Q17">
-        <v>767.6422071902382</v>
+        <v>2986.591922382804</v>
       </c>
       <c r="R17">
-        <v>767.6422071902382</v>
+        <v>26879.32730144524</v>
       </c>
       <c r="S17">
-        <v>0.166933961808516</v>
+        <v>0.3136196997420129</v>
       </c>
       <c r="T17">
-        <v>0.166933961808516</v>
+        <v>0.3293099008979706</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>396.600699876961</v>
+        <v>626.3728126666666</v>
       </c>
       <c r="H18">
-        <v>396.600699876961</v>
+        <v>1879.118438</v>
       </c>
       <c r="I18">
-        <v>0.525291617856004</v>
+        <v>0.6015416194555684</v>
       </c>
       <c r="J18">
-        <v>0.525291617856004</v>
+        <v>0.6142153852759307</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.94140758228632</v>
+        <v>3.082852</v>
       </c>
       <c r="N18">
-        <v>2.94140758228632</v>
+        <v>9.248556000000001</v>
       </c>
       <c r="O18">
-        <v>0.4829409900876771</v>
+        <v>0.3370911439219029</v>
       </c>
       <c r="P18">
-        <v>0.4829409900876771</v>
+        <v>0.3466520607784562</v>
       </c>
       <c r="Q18">
-        <v>1166.564305758154</v>
+        <v>1931.014678275059</v>
       </c>
       <c r="R18">
-        <v>1166.564305758154</v>
+        <v>17379.13210447553</v>
       </c>
       <c r="S18">
-        <v>0.2536848540121363</v>
+        <v>0.2027743526189115</v>
       </c>
       <c r="T18">
-        <v>0.2536848540121363</v>
+        <v>0.2129190290677348</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>396.600699876961</v>
+        <v>626.3728126666666</v>
       </c>
       <c r="H19">
-        <v>396.600699876961</v>
+        <v>1879.118438</v>
       </c>
       <c r="I19">
-        <v>0.525291617856004</v>
+        <v>0.6015416194555684</v>
       </c>
       <c r="J19">
-        <v>0.525291617856004</v>
+        <v>0.6142153852759307</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.167768556652029</v>
+        <v>0.1813516666666667</v>
       </c>
       <c r="N19">
-        <v>0.167768556652029</v>
+        <v>0.544055</v>
       </c>
       <c r="O19">
-        <v>0.0275454219071992</v>
+        <v>0.01982970339439268</v>
       </c>
       <c r="P19">
-        <v>0.0275454219071992</v>
+        <v>0.02039213331538707</v>
       </c>
       <c r="Q19">
-        <v>66.53712698554229</v>
+        <v>113.5937535317878</v>
       </c>
       <c r="R19">
-        <v>66.53712698554229</v>
+        <v>1022.34378178609</v>
       </c>
       <c r="S19">
-        <v>0.01446937923815888</v>
+        <v>0.01192839189318656</v>
       </c>
       <c r="T19">
-        <v>0.01446937923815888</v>
+        <v>0.01252516202090861</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>396.600699876961</v>
+        <v>626.3728126666666</v>
       </c>
       <c r="H20">
-        <v>396.600699876961</v>
+        <v>1879.118438</v>
       </c>
       <c r="I20">
-        <v>0.525291617856004</v>
+        <v>0.6015416194555684</v>
       </c>
       <c r="J20">
-        <v>0.525291617856004</v>
+        <v>0.6142153852759307</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.307330066358417</v>
+        <v>0.3564626666666666</v>
       </c>
       <c r="N20">
-        <v>0.307330066358417</v>
+        <v>1.069388</v>
       </c>
       <c r="O20">
-        <v>0.05045961240620675</v>
+        <v>0.0389770277885927</v>
       </c>
       <c r="P20">
-        <v>0.05045961240620675</v>
+        <v>0.04008253331349799</v>
       </c>
       <c r="Q20">
-        <v>121.887319410981</v>
+        <v>223.2785231306604</v>
       </c>
       <c r="R20">
-        <v>121.887319410981</v>
+        <v>2009.506708175944</v>
       </c>
       <c r="S20">
-        <v>0.02650601143724323</v>
+        <v>0.02344630441751475</v>
       </c>
       <c r="T20">
-        <v>0.02650601143724323</v>
+        <v>0.0246193086419855</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>396.600699876961</v>
+        <v>626.3728126666666</v>
       </c>
       <c r="H21">
-        <v>396.600699876961</v>
+        <v>1879.118438</v>
       </c>
       <c r="I21">
-        <v>0.525291617856004</v>
+        <v>0.6015416194555684</v>
       </c>
       <c r="J21">
-        <v>0.525291617856004</v>
+        <v>0.6142153852759307</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.738554335361319</v>
+        <v>0.756715</v>
       </c>
       <c r="N21">
-        <v>0.738554335361319</v>
+        <v>1.51343</v>
       </c>
       <c r="O21">
-        <v>0.1212610466162259</v>
+        <v>0.08274218969086504</v>
       </c>
       <c r="P21">
-        <v>0.1212610466162259</v>
+        <v>0.05672600439938289</v>
       </c>
       <c r="Q21">
-        <v>292.9111663014629</v>
+        <v>473.9857029370567</v>
       </c>
       <c r="R21">
-        <v>292.9111663014629</v>
+        <v>2843.91421762234</v>
       </c>
       <c r="S21">
-        <v>0.06369741135994961</v>
+        <v>0.04977287078394279</v>
       </c>
       <c r="T21">
-        <v>0.06369741135994961</v>
+        <v>0.0348419846473311</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>53.2757126866682</v>
+        <v>64.45750049999999</v>
       </c>
       <c r="H22">
-        <v>53.2757126866682</v>
+        <v>128.915001</v>
       </c>
       <c r="I22">
-        <v>0.07056287424175893</v>
+        <v>0.06190222253062919</v>
       </c>
       <c r="J22">
-        <v>0.07056287424175893</v>
+        <v>0.04213761911214986</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.93555434326865</v>
+        <v>4.768073999999999</v>
       </c>
       <c r="N22">
-        <v>1.93555434326865</v>
+        <v>14.304222</v>
       </c>
       <c r="O22">
-        <v>0.3177929289826911</v>
+        <v>0.5213599352042468</v>
       </c>
       <c r="P22">
-        <v>0.3177929289826911</v>
+        <v>0.5361472681932758</v>
       </c>
       <c r="Q22">
-        <v>103.1180370814133</v>
+        <v>307.338132239037</v>
       </c>
       <c r="R22">
-        <v>103.1180370814133</v>
+        <v>1844.028793434222</v>
       </c>
       <c r="S22">
-        <v>0.02242438248272586</v>
+        <v>0.0322733387275677</v>
       </c>
       <c r="T22">
-        <v>0.02242438248272586</v>
+        <v>0.02259196937514792</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>53.2757126866682</v>
+        <v>64.45750049999999</v>
       </c>
       <c r="H23">
-        <v>53.2757126866682</v>
+        <v>128.915001</v>
       </c>
       <c r="I23">
-        <v>0.07056287424175893</v>
+        <v>0.06190222253062919</v>
       </c>
       <c r="J23">
-        <v>0.07056287424175893</v>
+        <v>0.04213761911214986</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.94140758228632</v>
+        <v>3.082852</v>
       </c>
       <c r="N23">
-        <v>2.94140758228632</v>
+        <v>9.248556000000001</v>
       </c>
       <c r="O23">
-        <v>0.4829409900876771</v>
+        <v>0.3370911439219029</v>
       </c>
       <c r="P23">
-        <v>0.4829409900876771</v>
+        <v>0.3466520607784562</v>
       </c>
       <c r="Q23">
-        <v>156.7055852482733</v>
+        <v>198.712934331426</v>
       </c>
       <c r="R23">
-        <v>156.7055852482733</v>
+        <v>1192.277605988556</v>
       </c>
       <c r="S23">
-        <v>0.03407770434974731</v>
+        <v>0.02086669100415798</v>
       </c>
       <c r="T23">
-        <v>0.03407770434974731</v>
+        <v>0.01460709250152441</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>53.2757126866682</v>
+        <v>64.45750049999999</v>
       </c>
       <c r="H24">
-        <v>53.2757126866682</v>
+        <v>128.915001</v>
       </c>
       <c r="I24">
-        <v>0.07056287424175893</v>
+        <v>0.06190222253062919</v>
       </c>
       <c r="J24">
-        <v>0.07056287424175893</v>
+        <v>0.04213761911214986</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.167768556652029</v>
+        <v>0.1813516666666667</v>
       </c>
       <c r="N24">
-        <v>0.167768556652029</v>
+        <v>0.544055</v>
       </c>
       <c r="O24">
-        <v>0.0275454219071992</v>
+        <v>0.01982970339439268</v>
       </c>
       <c r="P24">
-        <v>0.0275454219071992</v>
+        <v>0.02039213331538707</v>
       </c>
       <c r="Q24">
-        <v>8.937989422050514</v>
+        <v>11.6894751448425</v>
       </c>
       <c r="R24">
-        <v>8.937989422050514</v>
+        <v>70.13685086905498</v>
       </c>
       <c r="S24">
-        <v>0.001943684141973889</v>
+        <v>0.001227502712236069</v>
       </c>
       <c r="T24">
-        <v>0.001943684141973889</v>
+        <v>0.0008592759465279621</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>53.2757126866682</v>
+        <v>64.45750049999999</v>
       </c>
       <c r="H25">
-        <v>53.2757126866682</v>
+        <v>128.915001</v>
       </c>
       <c r="I25">
-        <v>0.07056287424175893</v>
+        <v>0.06190222253062919</v>
       </c>
       <c r="J25">
-        <v>0.07056287424175893</v>
+        <v>0.04213761911214986</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.307330066358417</v>
+        <v>0.3564626666666666</v>
       </c>
       <c r="N25">
-        <v>0.307330066358417</v>
+        <v>1.069388</v>
       </c>
       <c r="O25">
-        <v>0.05045961240620675</v>
+        <v>0.0389770277885927</v>
       </c>
       <c r="P25">
-        <v>0.05045961240620675</v>
+        <v>0.04008253331349799</v>
       </c>
       <c r="Q25">
-        <v>16.37322831528569</v>
+        <v>22.976692514898</v>
       </c>
       <c r="R25">
-        <v>16.37322831528569</v>
+        <v>137.860155089388</v>
       </c>
       <c r="S25">
-        <v>0.003560575284507066</v>
+        <v>0.002412764647751983</v>
       </c>
       <c r="T25">
-        <v>0.003560575284507066</v>
+        <v>0.001688982521814236</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>53.2757126866682</v>
+        <v>64.45750049999999</v>
       </c>
       <c r="H26">
-        <v>53.2757126866682</v>
+        <v>128.915001</v>
       </c>
       <c r="I26">
-        <v>0.07056287424175893</v>
+        <v>0.06190222253062919</v>
       </c>
       <c r="J26">
-        <v>0.07056287424175893</v>
+        <v>0.04213761911214986</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.738554335361319</v>
+        <v>0.756715</v>
       </c>
       <c r="N26">
-        <v>0.738554335361319</v>
+        <v>1.51343</v>
       </c>
       <c r="O26">
-        <v>0.1212610466162259</v>
+        <v>0.08274218969086504</v>
       </c>
       <c r="P26">
-        <v>0.1212610466162259</v>
+        <v>0.05672600439938289</v>
       </c>
       <c r="Q26">
-        <v>39.34700857420282</v>
+        <v>48.7759574908575</v>
       </c>
       <c r="R26">
-        <v>39.34700857420282</v>
+        <v>195.10382996343</v>
       </c>
       <c r="S26">
-        <v>0.008556527982804814</v>
+        <v>0.00512192543891546</v>
       </c>
       <c r="T26">
-        <v>0.008556527982804814</v>
+        <v>0.002390298767135333</v>
       </c>
     </row>
   </sheetData>
